--- a/src/main/resources/static/newAssets/documents/Stack.xlsx
+++ b/src/main/resources/static/newAssets/documents/Stack.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\kyc\kyc\src\main\resources\static\newAssets\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175ED24C-54EA-4F0D-9718-2E527EB9B217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="7620"/>
+    <workbookView xWindow="480" yWindow="840" windowWidth="20010" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stack" sheetId="1" r:id="rId1"/>
-    <sheet name="attached to" sheetId="2" r:id="rId2"/>
-    <sheet name="units" sheetId="3" r:id="rId3"/>
-    <sheet name="status" sheetId="4" r:id="rId4"/>
+    <sheet name="fuletype" sheetId="11" r:id="rId2"/>
+    <sheet name="fuleunit" sheetId="9" r:id="rId3"/>
+    <sheet name="CapacityUnit" sheetId="7" r:id="rId4"/>
+    <sheet name="Shape" sheetId="6" r:id="rId5"/>
+    <sheet name="units" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId7"/>
+    <sheet name="hightunit" sheetId="5" r:id="rId8"/>
+    <sheet name="attached to" sheetId="2" r:id="rId9"/>
+    <sheet name="status" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="212">
   <si>
     <t>id</t>
   </si>
@@ -151,9 +163,6 @@
     <t>Nos/Hr</t>
   </si>
   <si>
-    <t>Is APC</t>
-  </si>
-  <si>
     <t>APC System</t>
   </si>
   <si>
@@ -164,13 +173,505 @@
   </si>
   <si>
     <t>Consent To Operate</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>rectangular</t>
+  </si>
+  <si>
+    <t>KVA</t>
+  </si>
+  <si>
+    <t>TPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA  </t>
+  </si>
+  <si>
+    <t>Beam/M</t>
+  </si>
+  <si>
+    <t>Box/M</t>
+  </si>
+  <si>
+    <t>Brass/A</t>
+  </si>
+  <si>
+    <t>Brass/D</t>
+  </si>
+  <si>
+    <t>Brass/M</t>
+  </si>
+  <si>
+    <t>Gel</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Kg/Annum</t>
+  </si>
+  <si>
+    <t>Kg/Cycle</t>
+  </si>
+  <si>
+    <t>Kg/M</t>
+  </si>
+  <si>
+    <t>KL/A</t>
+  </si>
+  <si>
+    <t>KL/D</t>
+  </si>
+  <si>
+    <t>KL/M</t>
+  </si>
+  <si>
+    <t>KLtr</t>
+  </si>
+  <si>
+    <t>Ltr/A</t>
+  </si>
+  <si>
+    <t>Ltr/Day</t>
+  </si>
+  <si>
+    <t>Ltr/Hr</t>
+  </si>
+  <si>
+    <t>M/day</t>
+  </si>
+  <si>
+    <t>m/month</t>
+  </si>
+  <si>
+    <t>m3/day</t>
+  </si>
+  <si>
+    <t>m3/hr</t>
+  </si>
+  <si>
+    <t>m3/month</t>
+  </si>
+  <si>
+    <t>mg/kg</t>
+  </si>
+  <si>
+    <t>mg/l</t>
+  </si>
+  <si>
+    <t>MLD</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>MT/A</t>
+  </si>
+  <si>
+    <t>MT/M</t>
+  </si>
+  <si>
+    <t>Mtrs/Day</t>
+  </si>
+  <si>
+    <t>Mtrs/M</t>
+  </si>
+  <si>
+    <t>Mtrs/Y</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>No/Cycl</t>
+  </si>
+  <si>
+    <t>No/D</t>
+  </si>
+  <si>
+    <t>No/M</t>
+  </si>
+  <si>
+    <t>Nos./Y</t>
+  </si>
+  <si>
+    <t>Pcs/A</t>
+  </si>
+  <si>
+    <t>Pcs/M</t>
+  </si>
+  <si>
+    <t>Pieces</t>
+  </si>
+  <si>
+    <t>Qnt/M</t>
+  </si>
+  <si>
+    <t>Qnt/Y</t>
+  </si>
+  <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>Rooms</t>
+  </si>
+  <si>
+    <t>SqFeet/D</t>
+  </si>
+  <si>
+    <t>SqFeet/M</t>
+  </si>
+  <si>
+    <t>SqFeet/Y</t>
+  </si>
+  <si>
+    <t>Ton/D</t>
+  </si>
+  <si>
+    <t>Ton/M</t>
+  </si>
+  <si>
+    <t>Ton/Y</t>
+  </si>
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>Ton/Ton</t>
+  </si>
+  <si>
+    <t>Mwh</t>
+  </si>
+  <si>
+    <t>Ton/hr</t>
+  </si>
+  <si>
+    <t>Million Nos./Day</t>
+  </si>
+  <si>
+    <t>Million Nos./M</t>
+  </si>
+  <si>
+    <t>Cr Nos./M</t>
+  </si>
+  <si>
+    <t>Million Nos./Year</t>
+  </si>
+  <si>
+    <t>Cr Nos./Day</t>
+  </si>
+  <si>
+    <t>Cr Nos./Year</t>
+  </si>
+  <si>
+    <t>MTPA</t>
+  </si>
+  <si>
+    <t>SCM/Day</t>
+  </si>
+  <si>
+    <t>lakh sets per month</t>
+  </si>
+  <si>
+    <t>Cases/M</t>
+  </si>
+  <si>
+    <t>Million meter/Y</t>
+  </si>
+  <si>
+    <t>SCM/Hr</t>
+  </si>
+  <si>
+    <t>Nm3/hr</t>
+  </si>
+  <si>
+    <t>Lakhs number/month</t>
+  </si>
+  <si>
+    <t>Sets/M</t>
+  </si>
+  <si>
+    <t>lbs/hr</t>
+  </si>
+  <si>
+    <t>Lac Ampoules/day</t>
+  </si>
+  <si>
+    <t>Lac vials/day</t>
+  </si>
+  <si>
+    <t>Lac PSF/day</t>
+  </si>
+  <si>
+    <t>MIU/M</t>
+  </si>
+  <si>
+    <t>Sq.M</t>
+  </si>
+  <si>
+    <t>SqM/Hr</t>
+  </si>
+  <si>
+    <t>Lac Nos./Annum</t>
+  </si>
+  <si>
+    <t>lakh sq.mtrs/M</t>
+  </si>
+  <si>
+    <t>sq.mtr/Year</t>
+  </si>
+  <si>
+    <t>MT/MWH</t>
+  </si>
+  <si>
+    <t>Pkts/M</t>
+  </si>
+  <si>
+    <t>Sq Mtr/Month</t>
+  </si>
+  <si>
+    <t>pieces/Year</t>
+  </si>
+  <si>
+    <t>Units/Hr</t>
+  </si>
+  <si>
+    <t>pieces/Day</t>
+  </si>
+  <si>
+    <t>pieces/Month</t>
+  </si>
+  <si>
+    <t>Units/Day</t>
+  </si>
+  <si>
+    <t>Units/Month</t>
+  </si>
+  <si>
+    <t>Units/Year</t>
+  </si>
+  <si>
+    <t>Sets/Day</t>
+  </si>
+  <si>
+    <t>Cm2/day</t>
+  </si>
+  <si>
+    <t>Kg/Batch</t>
+  </si>
+  <si>
+    <t>Tons/Heat</t>
+  </si>
+  <si>
+    <t>Ltr/Cycle</t>
+  </si>
+  <si>
+    <t>Sets/Annum</t>
+  </si>
+  <si>
+    <t>Kw/Day</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>mgm</t>
+  </si>
+  <si>
+    <t>MVA/Month</t>
+  </si>
+  <si>
+    <t>NM3/Month</t>
+  </si>
+  <si>
+    <t>KL/Mnc</t>
+  </si>
+  <si>
+    <t>MT/Mnc</t>
+  </si>
+  <si>
+    <t>MMBTU/day</t>
+  </si>
+  <si>
+    <t>SqMtr/D</t>
+  </si>
+  <si>
+    <t>Km/hrs</t>
+  </si>
+  <si>
+    <t>Km/Day</t>
+  </si>
+  <si>
+    <t>Km/Month</t>
+  </si>
+  <si>
+    <t>km/Anum</t>
+  </si>
+  <si>
+    <t>Boxes/M</t>
+  </si>
+  <si>
+    <t>Crates/Year</t>
+  </si>
+  <si>
+    <t>Fibers/cc</t>
+  </si>
+  <si>
+    <t>TCKM/Annuam</t>
+  </si>
+  <si>
+    <t>Gross/month</t>
+  </si>
+  <si>
+    <t>mg/Nm3</t>
+  </si>
+  <si>
+    <t>TEQ/Nm3</t>
+  </si>
+  <si>
+    <t>Lacks Meter/Year</t>
+  </si>
+  <si>
+    <t>Lacks Meter/Month</t>
+  </si>
+  <si>
+    <t>LM/Annum</t>
+  </si>
+  <si>
+    <t>HL/M</t>
+  </si>
+  <si>
+    <t>M3/month</t>
+  </si>
+  <si>
+    <t>M3/Anum</t>
+  </si>
+  <si>
+    <t>Cases/Day</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Bagasse</t>
+  </si>
+  <si>
+    <t>Briquettes</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Furnace Oil</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>HSD</t>
+  </si>
+  <si>
+    <t>Husk</t>
+  </si>
+  <si>
+    <t>Kerosin</t>
+  </si>
+  <si>
+    <t>LDO</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>LSHS</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Gas quantiy</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Gas temperature</t>
+  </si>
+  <si>
+    <t>Exit gas velocity</t>
+  </si>
+  <si>
+    <t>Control equipment preceding the stack</t>
+  </si>
+  <si>
+    <t>Nature of polutants likely to present in stack gases such as cl2,Nox,Sox TPM etc</t>
+  </si>
+  <si>
+    <t>Emissions control system provided</t>
+  </si>
+  <si>
+    <t>In case of D.G.Set power generation capacity in KVA</t>
+  </si>
+  <si>
+    <t>It is an APC</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>nm/3</t>
+  </si>
+  <si>
+    <t>celcius</t>
+  </si>
+  <si>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>cl2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +813,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242424"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -656,12 +1163,13 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -976,36 +1484,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="37.5703125" customWidth="1"/>
+    <col min="24" max="24" width="71" customWidth="1"/>
+    <col min="25" max="25" width="35.85546875" customWidth="1"/>
+    <col min="26" max="26" width="47.5703125" customWidth="1"/>
+    <col min="27" max="27" width="23" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1048,44 +1565,204 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
         <v>45</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
+      <c r="L2">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>208</v>
+      </c>
+      <c r="S2">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>209</v>
+      </c>
+      <c r="U2">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
+        <v>210</v>
+      </c>
+      <c r="W2">
+        <v>45</v>
+      </c>
+      <c r="X2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z2">
+        <v>45</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="17" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="18" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="19" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R1" r:id="rId1"/>
+    <hyperlink ref="AB1" r:id="rId1" xr:uid="{F9C13A5D-C9E6-4716-B854-1DD743935011}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'attached to'!$A$1:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>units!$A$2:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>H1 H3:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select Yes or No">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4953FC5-4CA4-46C0-A182-F3C74904777F}">
+          <x14:formula1>
+            <xm:f>hightunit!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K23 M2:M22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A3B560D-020E-4E20-BA16-A7C384A53377}">
+          <x14:formula1>
+            <xm:f>Shape!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I166</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{324BBE25-176D-4FCA-9B4F-AAB2BC79F9D2}">
+          <x14:formula1>
+            <xm:f>CapacityUnit!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E95</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64BE1702-F387-473C-B572-EFFF4A112D0A}">
+          <x14:formula1>
+            <xm:f>fuleunit!$A$1:$A$133</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A64C5F93-DD33-414E-835E-8D60E44CC566}">
+          <x14:formula1>
+            <xm:f>fuletype!$A$1:$A$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F53</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select Yes or No" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>status!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>O1:O1048576</xm:sqref>
+          <xm:sqref>O2:O1048576 P1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1093,32 +1770,1062 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301D5C82-AC3F-4277-811A-F810CD0B9D0F}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130ECC80-4525-4F43-92C1-21C1A085D1B9}">
+  <dimension ref="A1:A130"/>
+  <sheetViews>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93FDCC3-711A-4E67-9433-00B2C40C3495}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6BDBE0-68C9-49AC-B470-0C41DC4D9D1C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7649F6-D494-4A1B-9A0F-AA9E42518BB5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3865045F-4DF6-4200-9D92-D0D5AA86A6FD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1127,173 +2834,4 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>